--- a/Attendance_Report.xlsx
+++ b/Attendance_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8754</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADESH DEHADE</t>
+          <t>HARSH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:56</t>
+          <t>02:48</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8877</t>
+          <t>8754</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADITYA JADHAV</t>
+          <t>ADESH DEHADE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -510,34 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2026-02-28</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2345</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HARSH</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>00:56</t>
+          <t>02:51</t>
         </is>
       </c>
     </row>

--- a/Attendance_Report.xlsx
+++ b/Attendance_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,34 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2026-02-28</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8754</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ADESH DEHADE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>02:51</t>
+          <t>04:39</t>
         </is>
       </c>
     </row>
